--- a/outputs/Lincoln2.xlsx
+++ b/outputs/Lincoln2.xlsx
@@ -425,17 +425,17 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Information Processing Style, Computer Self-Efficacy, Attitude Towards Risk
-Why: The page presented is overwhelming with information about the project details and files but does not provide explicit guidance or links about filing an issue. Given Abi's comprehensive information processing style, she would need clear, direct, and accessible instructions to feel confident in taking this step. Due to her low computer self-efficacy, she might feel uncertain about where to look or how to proceed without explicit instructions. Additionally, Abi's risk-averse nature would make her hesitant to explore or tinker with unfamiliar options without clear guidance.</t>
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page shown is a project details page with various files and information about the project. There is no clear indication or direct link related to filing an issue. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would likely not consider this page as a step toward finding information about filing an issue. Additionally, due to her low computer self-efficacy, she might feel uncertain about where to look next without explicit guidance.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: Computer Self-Efficacy, Attitude Towards Risk, Learning Style
-Why: The page contains a lot of information about the project and files but does not provide clear instructions on how to file an issue. The "Issues" button on the side might not be immediately evident or recognized by Abi as the correct next step due to her low computer self-efficacy and risk-averse nature. Abi prefers explicit instructions and process-oriented learning, which are not provided here. Consequently, she may feel uncertain and hesitant to click the "Issues" button without more guidance.</t>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The "Issues" button on the side panel is clearly labeled, which aligns with Abi's need for explicit guidance. Given her comprehensive information processing style, she would likely read through the options available on the side panel and recognize that "Issues" is relevant to her task of filing an issue. Additionally, the clear labeling helps mitigate her low computer self-efficacy, making her feel more confident in taking this action.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Information Processing Style, Computer Self-Efficacy
-Why: Upon landing on the new page, Abi will see a list of existing issues but no direct information or instructions on how to file an issue. Abi's comprehensive information processing style means she needs clear, step-by-step guidance, which is not provided here. Her low computer self-efficacy might make her uncertain about what to do next without explicit instructions. Additionally, the presence of numerous issues might overwhelm her, making it difficult for her to find the specific action she needs to take to file a new issue.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking the "Issues" button, Abi lands on a page listing existing issues. While this indicates she is in the right area, the page does not provide explicit instructions or information on how to file a new issue. Given Abi's comprehensive information processing style, she would need clear guidance on the next steps. Additionally, her low computer self-efficacy might make her uncertain about how to proceed without explicit instructions, leading to confusion and hesitation.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: The green "New Issue" button is prominently displayed on the page, making it clear and easy to find. Despite Abi's comprehensive information processing style, the button's clear labeling and prominent placement will provide her with the needed guidance at this step. Even though Abi prefers process-oriented learning, the explicit label "New Issue" gives her enough confidence that clicking it would be the correct action to start filing an issue.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The green "New issue" button is prominently displayed and clearly labeled, making it easy for Abi to identify the next step in filing an issue. This aligns with her comprehensive information processing style, as she can easily see the button and understand its purpose. Additionally, the clear labeling helps mitigate her low computer self-efficacy, making her feel more confident in taking this action.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: Upon clicking the "New Issue" button, Abi lands on a clearly labeled form titled "New Issue." The form provides structured fields for entering the issue title, type, description, assignee, milestone, and labels. This layout aligns well with Abi's comprehensive information processing style and preference for process-oriented learning. The instructions and fields are straightforward, giving Abi confidence that she is making progress toward filing the issue. Additionally, the inclusion of links to description templates and contribution guidelines provides further guidance, ensuring she has all the information needed to complete the task.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking the "New issue" button, Abi lands on a page specifically designed for creating a new issue. The page is clearly labeled "New Issue" and provides fields for entering the title, description, and other relevant details. This clear layout and labeling align with Abi's comprehensive information processing style, as she can easily understand what information is required to file an issue. Additionally, the straightforward design and explicit instructions help mitigate her low computer self-efficacy, making her feel confident that she is making progress toward her goal and has all the information she needs to complete the task.</t>
         </is>
       </c>
     </row>

--- a/outputs/Lincoln2.xlsx
+++ b/outputs/Lincoln2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page shown is a repository page with a list of files and some information about the project. There is no clear indication or direct information about filing an issue. ABI, who prefers to use familiar methods and needs comprehensive information, might not immediately think of this page as a step toward finding information about filing an issue. The lack of explicit instructions or a clear path to filing an issue would likely deter ABI from considering this as a relevant step.</t>
+Why: The page primarily provides information about the repository and the FLOSScoach project, but it does not explicitly mention how to file an issue. ABI, who prefers comprehensive information and has low confidence in unfamiliar computing tasks, might not immediately recognize this page as a step toward filing an issue. The lack of direct information about filing an issue would likely demotivate ABI from considering this as a relevant step.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "Issues" button on the side panel is clearly labeled, making it straightforward for ABI to understand that clicking it might lead to information about filing an issue. ABI's comprehensive information processing style would likely lead them to read through the options available on the side panel, and the clear labeling aligns with their preference for process-oriented learning. Therefore, ABI would likely know what to do at this step and feel confident enough to take this action.</t>
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The "Issues" button on the side panel is clearly labeled, which aligns with ABI's need for clear and direct information. ABI is motivated to file an issue and would recognize that clicking on the "Issues" button is a logical step toward achieving this goal. The page layout is straightforward, and the button is prominently placed, making it easy for ABI to identify and click on it without needing to tinker or guess its function.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the "Issues" button, ABI lands on a page listing existing issues. While this indicates progress, it does not provide explicit information or instructions on how to file a new issue. ABI, who prefers comprehensive information and has low confidence in unfamiliar computing tasks, might not immediately understand that they need to click the "New issue" button to proceed. The page lacks clear guidance or a step-by-step process for filing an issue, which could leave ABI uncertain about whether they are making progress toward their goal.</t>
+Why: While ABI will know that they are on the issues page, the page does not provide explicit instructions or comprehensive information on how to file a new issue. ABI, who prefers detailed guidance and has low confidence in unfamiliar tasks, might not immediately understand that they need to click the "New issue" button to proceed. The page lists existing issues but does not clearly indicate the next steps for filing a new one, which could cause confusion and hinder ABI's progress toward their goal.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "New issue" button is prominently displayed in blue at the top right of the page, making it easily noticeable. ABI, who prefers comprehensive information and process-oriented learning, would likely recognize this button as the next step in filing an issue. The clear labeling and prominent placement of the button provide sufficient guidance for ABI to understand what to do at this step and feel confident in taking this action.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "New issue" button is prominently displayed in blue at the top right of the page, making it easy to identify. ABI, who is motivated to file an issue, will likely recognize this button as the next step. The button's clear labeling and placement provide sufficient information for ABI to understand that clicking it will help them progress toward their goal of filing an issue.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: After clicking the "New issue" button, ABI lands on a page specifically designed for creating a new issue. The page is clearly labeled "New Issue" and provides fields for entering the title, type, and description of the issue. This clear and structured layout aligns with ABI's preference for comprehensive information and process-oriented learning. ABI will know that they are making progress toward their goal of filing an issue and will have all the necessary information and fields to complete the task.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Upon clicking the "New issue" button, ABI is taken to a page titled "New Issue" with clear fields for entering the title, type, and description of the issue. This page provides a straightforward and structured format for filing an issue, which aligns with ABI's preference for comprehensive information and step-by-step processes. The presence of the "Create issue" button further confirms that ABI is on the right track and making progress toward their goal. The page is well-organized and provides all the necessary information ABI needs to file an issue.</t>
         </is>
       </c>
     </row>

--- a/outputs/Lincoln2.xlsx
+++ b/outputs/Lincoln2.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page primarily provides information about the repository and the FLOSScoach project, but it does not explicitly mention how to file an issue. ABI, who prefers comprehensive information and has low confidence in unfamiliar computing tasks, might not immediately recognize this page as a step toward filing an issue. The lack of direct information about filing an issue would likely demotivate ABI from considering this as a relevant step.</t>
+Why: The page shown is a repository view with various files and folders listed. There is no clear indication or information about filing an issue. ABI, who prefers comprehensive information and is risk-averse, would not likely consider this page as a step toward finding information about filing an issue. The lack of explicit instructions or links related to filing an issue would make ABI uncertain and unmotivated to proceed with this subgoal.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "Issues" button on the side panel is clearly labeled, which aligns with ABI's need for clear and direct information. ABI is motivated to file an issue and would recognize that clicking on the "Issues" button is a logical step toward achieving this goal. The page layout is straightforward, and the button is prominently placed, making it easy for ABI to identify and click on it without needing to tinker or guess its function.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The "Issues" button is clearly labeled on the side menu, which provides a straightforward indication of where to go to file an issue. ABI, who prefers comprehensive information, can see this option directly without needing to guess or tinker. The clear labeling helps mitigate ABI's low computer self-efficacy by providing a clear path to follow.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While ABI will know that they are on the issues page, the page does not provide explicit instructions or comprehensive information on how to file a new issue. ABI, who prefers detailed guidance and has low confidence in unfamiliar tasks, might not immediately understand that they need to click the "New issue" button to proceed. The page lists existing issues but does not clearly indicate the next steps for filing a new one, which could cause confusion and hinder ABI's progress toward their goal.</t>
+Why: After clicking the "Issues" button, ABI lands on a page listing existing issues. While this indicates progress, the page does not provide explicit instructions or information on how to file a new issue. ABI, who prefers comprehensive information and has low computer self-efficacy, might not immediately understand that they need to click the "New issue" button to proceed. The lack of clear guidance on this page could leave ABI uncertain about the next steps, making it difficult for them to feel confident that they are making progress toward their goal.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "New issue" button is prominently displayed in blue at the top right of the page, making it easy to identify. ABI, who is motivated to file an issue, will likely recognize this button as the next step. The button's clear labeling and placement provide sufficient information for ABI to understand that clicking it will help them progress toward their goal of filing an issue.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The "New issue" button is prominently displayed in blue at the top right of the page, making it easily noticeable. ABI, who prefers comprehensive information, can clearly see this button as the next step to take. The button's label is straightforward, reducing any ambiguity about its function. This clear and direct call to action aligns with ABI's need for explicit guidance, making it likely that ABI will know what to do at this step and feel confident in taking the action.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Upon clicking the "New issue" button, ABI is taken to a page titled "New Issue" with clear fields for entering the title, type, and description of the issue. This page provides a straightforward and structured format for filing an issue, which aligns with ABI's preference for comprehensive information and step-by-step processes. The presence of the "Create issue" button further confirms that ABI is on the right track and making progress toward their goal. The page is well-organized and provides all the necessary information ABI needs to file an issue.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking the "New issue" button, ABI lands on a page specifically designed for creating a new issue. The page is clearly labeled "New Issue" and provides fields for the title, type, and description, along with a "Create issue" button. This layout is straightforward and provides all the necessary information for filing an issue. ABI, who prefers comprehensive information, will recognize that they are on the correct page and making progress toward their goal. The clear instructions and fields reduce ambiguity, aligning with ABI's need for explicit guidance and boosting their confidence in completing the task.</t>
         </is>
       </c>
     </row>
